--- a/Data_clean/MCAS/Estados_US/Edos_USA_2018/DELAWARE_2018.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2018/DELAWARE_2018.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D448"/>
+  <dimension ref="A1:D442"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -709,7 +709,7 @@
     <row r="26">
       <c r="B26" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C26">
@@ -787,7 +787,7 @@
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C32">
@@ -909,7 +909,7 @@
     <row r="41">
       <c r="B41" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C41">
@@ -1018,7 +1018,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1262,7 +1262,7 @@
     <row r="67">
       <c r="B67" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C67">
@@ -1288,12 +1288,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C69">
@@ -1306,7 +1306,7 @@
     <row r="70">
       <c r="B70" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C70">
@@ -1397,7 +1397,7 @@
     <row r="77">
       <c r="B77" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C77">
@@ -1449,7 +1449,7 @@
     <row r="81">
       <c r="B81" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C81">
@@ -1488,7 +1488,7 @@
     <row r="84">
       <c r="B84" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C84">
@@ -1618,7 +1618,7 @@
     <row r="94">
       <c r="B94" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C94">
@@ -1670,7 +1670,7 @@
     <row r="98">
       <c r="B98" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C98">
@@ -1800,7 +1800,7 @@
     <row r="108">
       <c r="B108" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C108">
@@ -1865,7 +1865,7 @@
     <row r="113">
       <c r="B113" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C113">
@@ -1904,7 +1904,7 @@
     <row r="116">
       <c r="B116" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C116">
@@ -1917,7 +1917,7 @@
     <row r="117">
       <c r="B117" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C117">
@@ -1930,7 +1930,7 @@
     <row r="118">
       <c r="B118" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C118">
@@ -2039,7 +2039,7 @@
     <row r="126">
       <c r="B126" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C126">
@@ -2078,7 +2078,7 @@
     <row r="129">
       <c r="B129" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C129">
@@ -2117,7 +2117,7 @@
     <row r="132">
       <c r="B132" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C132">
@@ -2234,7 +2234,7 @@
     <row r="141">
       <c r="B141" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C141">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C145">
@@ -2304,7 +2304,7 @@
     <row r="146">
       <c r="B146" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C146">
@@ -2317,7 +2317,7 @@
     <row r="147">
       <c r="B147" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C147">
@@ -2343,7 +2343,7 @@
     <row r="149">
       <c r="B149" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C149">
@@ -2356,7 +2356,7 @@
     <row r="150">
       <c r="B150" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C150">
@@ -2369,7 +2369,7 @@
     <row r="151">
       <c r="B151" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C151">
@@ -2434,7 +2434,7 @@
     <row r="156">
       <c r="B156" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C156">
@@ -2447,7 +2447,7 @@
     <row r="157">
       <c r="B157" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C157">
@@ -2473,7 +2473,7 @@
     <row r="159">
       <c r="B159" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C159">
@@ -2499,7 +2499,7 @@
     <row r="161">
       <c r="B161" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C161">
@@ -2616,7 +2616,7 @@
     <row r="170">
       <c r="B170" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C170">
@@ -2629,7 +2629,7 @@
     <row r="171">
       <c r="B171" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C171">
@@ -2655,7 +2655,7 @@
     <row r="173">
       <c r="B173" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C173">
@@ -2790,7 +2790,7 @@
     <row r="183">
       <c r="B183" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C183">
@@ -2829,7 +2829,7 @@
     <row r="186">
       <c r="B186" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C186">
@@ -2842,7 +2842,7 @@
     <row r="187">
       <c r="B187" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C187">
@@ -2855,7 +2855,7 @@
     <row r="188">
       <c r="B188" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C188">
@@ -2938,7 +2938,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C194">
@@ -2977,7 +2977,7 @@
     <row r="197">
       <c r="B197" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C197">
@@ -3003,7 +3003,7 @@
     <row r="199">
       <c r="B199" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C199">
@@ -3029,7 +3029,7 @@
     <row r="201">
       <c r="B201" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C201">
@@ -3068,7 +3068,7 @@
     <row r="204">
       <c r="B204" t="inlineStr">
         <is>
-          <t>San Martín de Bolaños</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C204">
@@ -3081,7 +3081,7 @@
     <row r="205">
       <c r="B205" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C205">
@@ -3120,7 +3120,7 @@
     <row r="208">
       <c r="B208" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C208">
@@ -3146,7 +3146,7 @@
     <row r="210">
       <c r="B210" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C210">
@@ -3281,7 +3281,7 @@
     <row r="220">
       <c r="B220" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C220">
@@ -3819,7 +3819,7 @@
     <row r="261">
       <c r="B261" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C261">
@@ -3871,7 +3871,7 @@
     <row r="265">
       <c r="B265" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C265">
@@ -3980,7 +3980,7 @@
     <row r="273">
       <c r="B273" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C273">
@@ -4024,7 +4024,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C276">
@@ -4050,7 +4050,7 @@
     <row r="278">
       <c r="B278" t="inlineStr">
         <is>
-          <t>Fresnillo de Trujano</t>
+          <t>Fresnillo De Trujano</t>
         </is>
       </c>
       <c r="C278">
@@ -4063,7 +4063,7 @@
     <row r="279">
       <c r="B279" t="inlineStr">
         <is>
-          <t>Guevea de Humboldt</t>
+          <t>Guevea De Humboldt</t>
         </is>
       </c>
       <c r="C279">
@@ -4076,7 +4076,7 @@
     <row r="280">
       <c r="B280" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C280">
@@ -4128,7 +4128,7 @@
     <row r="284">
       <c r="B284" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C284">
@@ -4141,7 +4141,7 @@
     <row r="285">
       <c r="B285" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C285">
@@ -4245,7 +4245,7 @@
     <row r="293">
       <c r="B293" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C293">
@@ -4323,7 +4323,7 @@
     <row r="299">
       <c r="B299" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C299">
@@ -4349,7 +4349,7 @@
     <row r="301">
       <c r="B301" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C301">
@@ -4627,7 +4627,7 @@
     <row r="322">
       <c r="B322" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C322">
@@ -4653,7 +4653,7 @@
     <row r="324">
       <c r="B324" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerrero</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C324">
@@ -4666,7 +4666,7 @@
     <row r="325">
       <c r="B325" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C325">
@@ -4783,7 +4783,7 @@
     <row r="334">
       <c r="B334" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C334">
@@ -4796,7 +4796,7 @@
     <row r="335">
       <c r="B335" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C335">
@@ -4809,7 +4809,7 @@
     <row r="336">
       <c r="B336" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C336">
@@ -4861,7 +4861,7 @@
     <row r="340">
       <c r="B340" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C340">
@@ -4996,7 +4996,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C350">
@@ -5022,7 +5022,7 @@
     <row r="352">
       <c r="B352" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C352">
@@ -5035,7 +5035,7 @@
     <row r="353">
       <c r="B353" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C353">
@@ -5123,7 +5123,7 @@
     <row r="359">
       <c r="B359" t="inlineStr">
         <is>
-          <t>Axtla de Terrazas</t>
+          <t>Axtla De Terrazas</t>
         </is>
       </c>
       <c r="C359">
@@ -5149,7 +5149,7 @@
     <row r="361">
       <c r="B361" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C361">
@@ -5279,7 +5279,7 @@
     <row r="371">
       <c r="B371" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C371">
@@ -5668,7 +5668,7 @@
     <row r="399">
       <c r="B399" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C399">
@@ -5746,7 +5746,7 @@
     <row r="405">
       <c r="B405" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C405">
@@ -5798,7 +5798,7 @@
     <row r="409">
       <c r="B409" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C409">
@@ -5811,7 +5811,7 @@
     <row r="410">
       <c r="B410" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C410">
@@ -5863,7 +5863,7 @@
     <row r="414">
       <c r="B414" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C414">
@@ -5915,7 +5915,7 @@
     <row r="418">
       <c r="B418" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C418">
@@ -5941,7 +5941,7 @@
     <row r="420">
       <c r="B420" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C420">
@@ -6058,7 +6058,7 @@
     <row r="429">
       <c r="B429" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C429">
@@ -6240,41 +6240,6 @@
       </c>
       <c r="D442">
         <v>1</v>
-      </c>
-    </row>
-    <row r="444">
-      <c r="A444" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 794,748</t>
-        </is>
-      </c>
-    </row>
-    <row r="445">
-      <c r="A445" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="446">
-      <c r="A446" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="447">
-      <c r="A447" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="448">
-      <c r="A448" t="inlineStr">
-        <is>
-          <t>Diciembre de 2019</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2018/DELAWARE_2018.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2018/DELAWARE_2018.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Calvillo</t>
@@ -411,6 +416,11 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>Total</t>
@@ -442,6 +452,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Mexicali</t>
@@ -455,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Tijuana</t>
@@ -468,6 +488,11 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Total</t>
@@ -499,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Arriaga</t>
@@ -512,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Bella Vista</t>
@@ -525,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Cacahoatán</t>
@@ -538,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Chamula</t>
@@ -551,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Chenalhó</t>
@@ -564,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Copainalá</t>
@@ -577,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>El Porvenir</t>
@@ -590,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Escuintla</t>
@@ -603,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Frontera Comalapa</t>
@@ -616,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Huehuetán</t>
@@ -629,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Huixtla</t>
@@ -642,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>La Concordia</t>
@@ -655,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>La Grandeza</t>
@@ -668,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>La Trinitaria</t>
@@ -681,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Las Margaritas</t>
@@ -694,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Mapastepec</t>
@@ -707,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Mazapa De Madero</t>
@@ -720,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Mazatán</t>
@@ -733,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Metapa</t>
@@ -746,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Motozintla</t>
@@ -759,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Ocosingo</t>
@@ -772,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Pijijiapan</t>
@@ -785,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>San Cristóbal De Las Casas</t>
@@ -798,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Siltepec</t>
@@ -811,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Tapachula</t>
@@ -824,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Unión Juárez</t>
@@ -837,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>Villa Comaltitlán</t>
@@ -850,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Total</t>
@@ -881,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Coronado</t>
@@ -894,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Delicias</t>
@@ -907,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Hidalgo Del Parral</t>
@@ -920,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Juárez</t>
@@ -933,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Saucillo</t>
@@ -946,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Urique</t>
@@ -959,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Total</t>
@@ -990,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Viesca</t>
@@ -1003,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Coahuila</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1034,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Azcapotzalco</t>
@@ -1047,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Cuauhtémoc</t>
@@ -1060,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Gustavo A. Madero</t>
@@ -1073,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>Iztacalco</t>
@@ -1086,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>Iztapalapa</t>
@@ -1099,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Miguel Hidalgo</t>
@@ -1112,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>Milpa Alta</t>
@@ -1125,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>Tlalpan</t>
@@ -1138,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -1151,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>Xochimilco</t>
@@ -1164,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1195,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>El Oro</t>
@@ -1208,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>Mezquital</t>
@@ -1221,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Ocampo</t>
@@ -1234,6 +1514,11 @@
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>Peñón Blanco</t>
@@ -1247,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>San Bernardo</t>
@@ -1260,6 +1550,11 @@
       </c>
     </row>
     <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B67" t="inlineStr">
         <is>
           <t>San Juan Del Río</t>
@@ -1273,6 +1568,11 @@
       </c>
     </row>
     <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1304,6 +1604,11 @@
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>Almoloya De Juárez</t>
@@ -1317,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>Amanalco</t>
@@ -1330,6 +1640,11 @@
       </c>
     </row>
     <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>Amecameca</t>
@@ -1343,6 +1658,11 @@
       </c>
     </row>
     <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>Atizapán</t>
@@ -1356,6 +1676,11 @@
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
           <t>Atlacomulco</t>
@@ -1369,6 +1694,11 @@
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>Atlautla</t>
@@ -1382,6 +1712,11 @@
       </c>
     </row>
     <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B76" t="inlineStr">
         <is>
           <t>Chalco</t>
@@ -1395,6 +1730,11 @@
       </c>
     </row>
     <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B77" t="inlineStr">
         <is>
           <t>Chapa De Mota</t>
@@ -1408,6 +1748,11 @@
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>Chicoloapan</t>
@@ -1421,6 +1766,11 @@
       </c>
     </row>
     <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B79" t="inlineStr">
         <is>
           <t>Chimalhuacán</t>
@@ -1434,6 +1784,11 @@
       </c>
     </row>
     <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B80" t="inlineStr">
         <is>
           <t>Coatepec Harinas</t>
@@ -1447,6 +1802,11 @@
       </c>
     </row>
     <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B81" t="inlineStr">
         <is>
           <t>Ecatepec De Morelos</t>
@@ -1460,6 +1820,11 @@
       </c>
     </row>
     <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B82" t="inlineStr">
         <is>
           <t>El Oro</t>
@@ -1473,6 +1838,11 @@
       </c>
     </row>
     <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B83" t="inlineStr">
         <is>
           <t>Ixtapaluca</t>
@@ -1486,6 +1856,11 @@
       </c>
     </row>
     <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B84" t="inlineStr">
         <is>
           <t>Ixtapan De La Sal</t>
@@ -1499,6 +1874,11 @@
       </c>
     </row>
     <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B85" t="inlineStr">
         <is>
           <t>Ixtlahuaca</t>
@@ -1512,6 +1892,11 @@
       </c>
     </row>
     <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B86" t="inlineStr">
         <is>
           <t>Jaltenco</t>
@@ -1525,6 +1910,11 @@
       </c>
     </row>
     <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B87" t="inlineStr">
         <is>
           <t>Jocotitlán</t>
@@ -1538,6 +1928,11 @@
       </c>
     </row>
     <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B88" t="inlineStr">
         <is>
           <t>Joquicingo</t>
@@ -1551,6 +1946,11 @@
       </c>
     </row>
     <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B89" t="inlineStr">
         <is>
           <t>La Paz</t>
@@ -1564,6 +1964,11 @@
       </c>
     </row>
     <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B90" t="inlineStr">
         <is>
           <t>Lerma</t>
@@ -1577,6 +1982,11 @@
       </c>
     </row>
     <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B91" t="inlineStr">
         <is>
           <t>Malinalco</t>
@@ -1590,6 +2000,11 @@
       </c>
     </row>
     <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B92" t="inlineStr">
         <is>
           <t>Metepec</t>
@@ -1603,6 +2018,11 @@
       </c>
     </row>
     <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B93" t="inlineStr">
         <is>
           <t>Morelos</t>
@@ -1616,6 +2036,11 @@
       </c>
     </row>
     <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B94" t="inlineStr">
         <is>
           <t>Naucalpan De Juárez</t>
@@ -1629,6 +2054,11 @@
       </c>
     </row>
     <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B95" t="inlineStr">
         <is>
           <t>Nezahualcóyotl</t>
@@ -1642,6 +2072,11 @@
       </c>
     </row>
     <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B96" t="inlineStr">
         <is>
           <t>Otzolotepec</t>
@@ -1655,6 +2090,11 @@
       </c>
     </row>
     <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B97" t="inlineStr">
         <is>
           <t>Ozumba</t>
@@ -1668,6 +2108,11 @@
       </c>
     </row>
     <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B98" t="inlineStr">
         <is>
           <t>San Felipe Del Progreso</t>
@@ -1681,6 +2126,11 @@
       </c>
     </row>
     <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B99" t="inlineStr">
         <is>
           <t>San Mateo Atenco</t>
@@ -1694,6 +2144,11 @@
       </c>
     </row>
     <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B100" t="inlineStr">
         <is>
           <t>Santo Tomás</t>
@@ -1707,6 +2162,11 @@
       </c>
     </row>
     <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B101" t="inlineStr">
         <is>
           <t>Sultepec</t>
@@ -1720,6 +2180,11 @@
       </c>
     </row>
     <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B102" t="inlineStr">
         <is>
           <t>Tecámac</t>
@@ -1733,6 +2198,11 @@
       </c>
     </row>
     <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B103" t="inlineStr">
         <is>
           <t>Tejupilco</t>
@@ -1746,6 +2216,11 @@
       </c>
     </row>
     <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B104" t="inlineStr">
         <is>
           <t>Temascalapa</t>
@@ -1759,6 +2234,11 @@
       </c>
     </row>
     <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B105" t="inlineStr">
         <is>
           <t>Temascalcingo</t>
@@ -1772,6 +2252,11 @@
       </c>
     </row>
     <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B106" t="inlineStr">
         <is>
           <t>Temascaltepec</t>
@@ -1785,6 +2270,11 @@
       </c>
     </row>
     <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B107" t="inlineStr">
         <is>
           <t>Tenancingo</t>
@@ -1798,6 +2288,11 @@
       </c>
     </row>
     <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B108" t="inlineStr">
         <is>
           <t>Tenango Del Valle</t>
@@ -1811,6 +2306,11 @@
       </c>
     </row>
     <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B109" t="inlineStr">
         <is>
           <t>Tepetlixpa</t>
@@ -1824,6 +2324,11 @@
       </c>
     </row>
     <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B110" t="inlineStr">
         <is>
           <t>Tepotzotlán</t>
@@ -1837,6 +2342,11 @@
       </c>
     </row>
     <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B111" t="inlineStr">
         <is>
           <t>Tequixquiac</t>
@@ -1850,6 +2360,11 @@
       </c>
     </row>
     <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B112" t="inlineStr">
         <is>
           <t>Texcaltitlán</t>
@@ -1863,6 +2378,11 @@
       </c>
     </row>
     <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B113" t="inlineStr">
         <is>
           <t>Tlalnepantla De Baz</t>
@@ -1876,6 +2396,11 @@
       </c>
     </row>
     <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B114" t="inlineStr">
         <is>
           <t>Tlatlaya</t>
@@ -1889,6 +2414,11 @@
       </c>
     </row>
     <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B115" t="inlineStr">
         <is>
           <t>Toluca</t>
@@ -1902,6 +2432,11 @@
       </c>
     </row>
     <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B116" t="inlineStr">
         <is>
           <t>Valle De Chalco Solidaridad</t>
@@ -1915,6 +2450,11 @@
       </c>
     </row>
     <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B117" t="inlineStr">
         <is>
           <t>Villa De Allende</t>
@@ -1928,6 +2468,11 @@
       </c>
     </row>
     <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B118" t="inlineStr">
         <is>
           <t>Villa Del Carbón</t>
@@ -1941,6 +2486,11 @@
       </c>
     </row>
     <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B119" t="inlineStr">
         <is>
           <t>Villa Guerrero</t>
@@ -1954,6 +2504,11 @@
       </c>
     </row>
     <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B120" t="inlineStr">
         <is>
           <t>Zacualpan</t>
@@ -1967,6 +2522,11 @@
       </c>
     </row>
     <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B121" t="inlineStr">
         <is>
           <t>Zinacantepec</t>
@@ -1980,6 +2540,11 @@
       </c>
     </row>
     <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B122" t="inlineStr">
         <is>
           <t>Zumpahuacán</t>
@@ -1993,6 +2558,11 @@
       </c>
     </row>
     <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B123" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2024,6 +2594,11 @@
       </c>
     </row>
     <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B125" t="inlineStr">
         <is>
           <t>Acámbaro</t>
@@ -2037,6 +2612,11 @@
       </c>
     </row>
     <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B126" t="inlineStr">
         <is>
           <t>Apaseo El Grande</t>
@@ -2050,6 +2630,11 @@
       </c>
     </row>
     <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B127" t="inlineStr">
         <is>
           <t>Celaya</t>
@@ -2063,6 +2648,11 @@
       </c>
     </row>
     <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B128" t="inlineStr">
         <is>
           <t>Cuerámaro</t>
@@ -2076,6 +2666,11 @@
       </c>
     </row>
     <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B129" t="inlineStr">
         <is>
           <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
@@ -2089,6 +2684,11 @@
       </c>
     </row>
     <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B130" t="inlineStr">
         <is>
           <t>Guanajuato</t>
@@ -2102,6 +2702,11 @@
       </c>
     </row>
     <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B131" t="inlineStr">
         <is>
           <t>Irapuato</t>
@@ -2115,6 +2720,11 @@
       </c>
     </row>
     <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B132" t="inlineStr">
         <is>
           <t>Jaral Del Progreso</t>
@@ -2128,6 +2738,11 @@
       </c>
     </row>
     <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B133" t="inlineStr">
         <is>
           <t>Jerécuaro</t>
@@ -2141,6 +2756,11 @@
       </c>
     </row>
     <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B134" t="inlineStr">
         <is>
           <t>León</t>
@@ -2154,6 +2774,11 @@
       </c>
     </row>
     <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B135" t="inlineStr">
         <is>
           <t>Moroleón</t>
@@ -2167,6 +2792,11 @@
       </c>
     </row>
     <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B136" t="inlineStr">
         <is>
           <t>Pénjamo</t>
@@ -2180,6 +2810,11 @@
       </c>
     </row>
     <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B137" t="inlineStr">
         <is>
           <t>Salamanca</t>
@@ -2193,6 +2828,11 @@
       </c>
     </row>
     <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B138" t="inlineStr">
         <is>
           <t>Salvatierra</t>
@@ -2206,6 +2846,11 @@
       </c>
     </row>
     <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B139" t="inlineStr">
         <is>
           <t>San Felipe</t>
@@ -2219,6 +2864,11 @@
       </c>
     </row>
     <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B140" t="inlineStr">
         <is>
           <t>Uriangato</t>
@@ -2232,6 +2882,11 @@
       </c>
     </row>
     <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B141" t="inlineStr">
         <is>
           <t>Valle De Santiago</t>
@@ -2245,6 +2900,11 @@
       </c>
     </row>
     <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B142" t="inlineStr">
         <is>
           <t>Xichú</t>
@@ -2258,6 +2918,11 @@
       </c>
     </row>
     <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B143" t="inlineStr">
         <is>
           <t>Yuriria</t>
@@ -2271,6 +2936,11 @@
       </c>
     </row>
     <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B144" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2302,6 +2972,11 @@
       </c>
     </row>
     <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B146" t="inlineStr">
         <is>
           <t>Ajuchitlán Del Progreso</t>
@@ -2315,6 +2990,11 @@
       </c>
     </row>
     <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B147" t="inlineStr">
         <is>
           <t>Alcozauca De Guerrero</t>
@@ -2328,6 +3008,11 @@
       </c>
     </row>
     <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B148" t="inlineStr">
         <is>
           <t>Arcelia</t>
@@ -2341,6 +3026,11 @@
       </c>
     </row>
     <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B149" t="inlineStr">
         <is>
           <t>Atoyac De Álvarez</t>
@@ -2354,6 +3044,11 @@
       </c>
     </row>
     <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B150" t="inlineStr">
         <is>
           <t>Chilpancingo De Los Bravo</t>
@@ -2367,6 +3062,11 @@
       </c>
     </row>
     <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B151" t="inlineStr">
         <is>
           <t>Coyuca De Benítez</t>
@@ -2380,6 +3080,11 @@
       </c>
     </row>
     <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B152" t="inlineStr">
         <is>
           <t>Cuajinicuilapa</t>
@@ -2393,6 +3098,11 @@
       </c>
     </row>
     <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B153" t="inlineStr">
         <is>
           <t>Eduardo Neri</t>
@@ -2406,6 +3116,11 @@
       </c>
     </row>
     <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B154" t="inlineStr">
         <is>
           <t>Florencio Villarreal</t>
@@ -2419,6 +3134,11 @@
       </c>
     </row>
     <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B155" t="inlineStr">
         <is>
           <t>General Heliodoro Castillo</t>
@@ -2432,6 +3152,11 @@
       </c>
     </row>
     <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B156" t="inlineStr">
         <is>
           <t>Huitzuco De Los Figueroa</t>
@@ -2445,6 +3170,11 @@
       </c>
     </row>
     <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B157" t="inlineStr">
         <is>
           <t>Iguala De La Independencia</t>
@@ -2458,6 +3188,11 @@
       </c>
     </row>
     <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B158" t="inlineStr">
         <is>
           <t>Igualapa</t>
@@ -2471,6 +3206,11 @@
       </c>
     </row>
     <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B159" t="inlineStr">
         <is>
           <t>Zihuatanejo De Azueta</t>
@@ -2484,6 +3224,11 @@
       </c>
     </row>
     <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B160" t="inlineStr">
         <is>
           <t>Juan R. Escudero</t>
@@ -2497,6 +3242,11 @@
       </c>
     </row>
     <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B161" t="inlineStr">
         <is>
           <t>La Unión De Isidoro Montes De Oca</t>
@@ -2510,6 +3260,11 @@
       </c>
     </row>
     <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B162" t="inlineStr">
         <is>
           <t>Leonardo Bravo</t>
@@ -2523,6 +3278,11 @@
       </c>
     </row>
     <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B163" t="inlineStr">
         <is>
           <t>Malinaltepec</t>
@@ -2536,6 +3296,11 @@
       </c>
     </row>
     <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B164" t="inlineStr">
         <is>
           <t>Olinalá</t>
@@ -2549,6 +3314,11 @@
       </c>
     </row>
     <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B165" t="inlineStr">
         <is>
           <t>Ometepec</t>
@@ -2562,6 +3332,11 @@
       </c>
     </row>
     <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B166" t="inlineStr">
         <is>
           <t>Pilcaya</t>
@@ -2575,6 +3350,11 @@
       </c>
     </row>
     <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B167" t="inlineStr">
         <is>
           <t>Pungarabato</t>
@@ -2588,6 +3368,11 @@
       </c>
     </row>
     <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B168" t="inlineStr">
         <is>
           <t>San Marcos</t>
@@ -2601,6 +3386,11 @@
       </c>
     </row>
     <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B169" t="inlineStr">
         <is>
           <t>San Miguel Totolapan</t>
@@ -2614,6 +3404,11 @@
       </c>
     </row>
     <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B170" t="inlineStr">
         <is>
           <t>Taxco De Alarcón</t>
@@ -2627,6 +3422,11 @@
       </c>
     </row>
     <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B171" t="inlineStr">
         <is>
           <t>Técpan De Galeana</t>
@@ -2640,6 +3440,11 @@
       </c>
     </row>
     <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B172" t="inlineStr">
         <is>
           <t>Teloloapan</t>
@@ -2653,6 +3458,11 @@
       </c>
     </row>
     <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B173" t="inlineStr">
         <is>
           <t>Tepecoacuilco De Trujano</t>
@@ -2666,6 +3476,11 @@
       </c>
     </row>
     <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B174" t="inlineStr">
         <is>
           <t>Tetipac</t>
@@ -2679,6 +3494,11 @@
       </c>
     </row>
     <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B175" t="inlineStr">
         <is>
           <t>Tlacoachistlahuaca</t>
@@ -2692,6 +3512,11 @@
       </c>
     </row>
     <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B176" t="inlineStr">
         <is>
           <t>Tlalchapa</t>
@@ -2705,6 +3530,11 @@
       </c>
     </row>
     <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B177" t="inlineStr">
         <is>
           <t>Tlapehuala</t>
@@ -2718,6 +3548,11 @@
       </c>
     </row>
     <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B178" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2749,6 +3584,11 @@
       </c>
     </row>
     <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B180" t="inlineStr">
         <is>
           <t>Chapantongo</t>
@@ -2762,6 +3602,11 @@
       </c>
     </row>
     <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B181" t="inlineStr">
         <is>
           <t>Chapulhuacán</t>
@@ -2775,6 +3620,11 @@
       </c>
     </row>
     <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B182" t="inlineStr">
         <is>
           <t>Francisco I. Madero</t>
@@ -2788,6 +3638,11 @@
       </c>
     </row>
     <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B183" t="inlineStr">
         <is>
           <t>Huasca De Ocampo</t>
@@ -2801,6 +3656,11 @@
       </c>
     </row>
     <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B184" t="inlineStr">
         <is>
           <t>Ixmiquilpan</t>
@@ -2814,6 +3674,11 @@
       </c>
     </row>
     <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B185" t="inlineStr">
         <is>
           <t>Lolotla</t>
@@ -2827,6 +3692,11 @@
       </c>
     </row>
     <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B186" t="inlineStr">
         <is>
           <t>Molango De Escamilla</t>
@@ -2840,6 +3710,11 @@
       </c>
     </row>
     <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B187" t="inlineStr">
         <is>
           <t>Nopala De Villagrán</t>
@@ -2853,6 +3728,11 @@
       </c>
     </row>
     <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B188" t="inlineStr">
         <is>
           <t>Pachuca De Soto</t>
@@ -2866,6 +3746,11 @@
       </c>
     </row>
     <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B189" t="inlineStr">
         <is>
           <t>Pisaflores</t>
@@ -2879,6 +3764,11 @@
       </c>
     </row>
     <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B190" t="inlineStr">
         <is>
           <t>Tasquillo</t>
@@ -2892,6 +3782,11 @@
       </c>
     </row>
     <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B191" t="inlineStr">
         <is>
           <t>Tizayuca</t>
@@ -2905,6 +3800,11 @@
       </c>
     </row>
     <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B192" t="inlineStr">
         <is>
           <t>Tlanchinol</t>
@@ -2918,6 +3818,11 @@
       </c>
     </row>
     <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B193" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2949,6 +3854,11 @@
       </c>
     </row>
     <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B195" t="inlineStr">
         <is>
           <t>Chimaltitán</t>
@@ -2962,6 +3872,11 @@
       </c>
     </row>
     <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B196" t="inlineStr">
         <is>
           <t>El Salto</t>
@@ -2975,6 +3890,11 @@
       </c>
     </row>
     <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B197" t="inlineStr">
         <is>
           <t>Encarnación De Díaz</t>
@@ -2988,6 +3908,11 @@
       </c>
     </row>
     <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B198" t="inlineStr">
         <is>
           <t>Guadalajara</t>
@@ -3001,6 +3926,11 @@
       </c>
     </row>
     <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B199" t="inlineStr">
         <is>
           <t>Huejuquilla El Alto</t>
@@ -3014,6 +3944,11 @@
       </c>
     </row>
     <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B200" t="inlineStr">
         <is>
           <t>La Huerta</t>
@@ -3027,6 +3962,11 @@
       </c>
     </row>
     <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B201" t="inlineStr">
         <is>
           <t>Lagos De Moreno</t>
@@ -3040,6 +3980,11 @@
       </c>
     </row>
     <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B202" t="inlineStr">
         <is>
           <t>Puerto Vallarta</t>
@@ -3053,6 +3998,11 @@
       </c>
     </row>
     <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B203" t="inlineStr">
         <is>
           <t>Quitupan</t>
@@ -3066,6 +4016,11 @@
       </c>
     </row>
     <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B204" t="inlineStr">
         <is>
           <t>San Martín De Bolaños</t>
@@ -3079,6 +4034,11 @@
       </c>
     </row>
     <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B205" t="inlineStr">
         <is>
           <t>Tepatitlán De Morelos</t>
@@ -3092,6 +4052,11 @@
       </c>
     </row>
     <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B206" t="inlineStr">
         <is>
           <t>San Pedro Tlaquepaque</t>
@@ -3105,6 +4070,11 @@
       </c>
     </row>
     <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B207" t="inlineStr">
         <is>
           <t>Villa Purificación</t>
@@ -3118,6 +4088,11 @@
       </c>
     </row>
     <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B208" t="inlineStr">
         <is>
           <t>Zacoalco De Torres</t>
@@ -3131,6 +4106,11 @@
       </c>
     </row>
     <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B209" t="inlineStr">
         <is>
           <t>Zapopan</t>
@@ -3144,6 +4124,11 @@
       </c>
     </row>
     <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B210" t="inlineStr">
         <is>
           <t>Zapotlán El Grande</t>
@@ -3157,6 +4142,11 @@
       </c>
     </row>
     <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B211" t="inlineStr">
         <is>
           <t>Zapotlanejo</t>
@@ -3170,6 +4160,11 @@
       </c>
     </row>
     <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B212" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3201,6 +4196,11 @@
       </c>
     </row>
     <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B214" t="inlineStr">
         <is>
           <t>Aguililla</t>
@@ -3214,6 +4214,11 @@
       </c>
     </row>
     <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B215" t="inlineStr">
         <is>
           <t>Angamacutiro</t>
@@ -3227,6 +4232,11 @@
       </c>
     </row>
     <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B216" t="inlineStr">
         <is>
           <t>Angangueo</t>
@@ -3240,6 +4250,11 @@
       </c>
     </row>
     <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B217" t="inlineStr">
         <is>
           <t>Ario</t>
@@ -3253,6 +4268,11 @@
       </c>
     </row>
     <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B218" t="inlineStr">
         <is>
           <t>Carácuaro</t>
@@ -3266,6 +4286,11 @@
       </c>
     </row>
     <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B219" t="inlineStr">
         <is>
           <t>Chavinda</t>
@@ -3279,6 +4304,11 @@
       </c>
     </row>
     <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B220" t="inlineStr">
         <is>
           <t>Coalcomán De Vázquez Pallares</t>
@@ -3292,6 +4322,11 @@
       </c>
     </row>
     <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B221" t="inlineStr">
         <is>
           <t>Coeneo</t>
@@ -3305,6 +4340,11 @@
       </c>
     </row>
     <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B222" t="inlineStr">
         <is>
           <t>Erongarícuaro</t>
@@ -3318,6 +4358,11 @@
       </c>
     </row>
     <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B223" t="inlineStr">
         <is>
           <t>Hidalgo</t>
@@ -3331,6 +4376,11 @@
       </c>
     </row>
     <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B224" t="inlineStr">
         <is>
           <t>Jacona</t>
@@ -3344,6 +4394,11 @@
       </c>
     </row>
     <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B225" t="inlineStr">
         <is>
           <t>Jiménez</t>
@@ -3357,6 +4412,11 @@
       </c>
     </row>
     <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B226" t="inlineStr">
         <is>
           <t>La Huacana</t>
@@ -3370,6 +4430,11 @@
       </c>
     </row>
     <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B227" t="inlineStr">
         <is>
           <t>La Piedad</t>
@@ -3383,6 +4448,11 @@
       </c>
     </row>
     <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B228" t="inlineStr">
         <is>
           <t>Lázaro Cárdenas</t>
@@ -3396,6 +4466,11 @@
       </c>
     </row>
     <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B229" t="inlineStr">
         <is>
           <t>Maravatío</t>
@@ -3409,6 +4484,11 @@
       </c>
     </row>
     <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B230" t="inlineStr">
         <is>
           <t>Morelia</t>
@@ -3422,6 +4502,11 @@
       </c>
     </row>
     <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B231" t="inlineStr">
         <is>
           <t>Nocupétaro</t>
@@ -3435,6 +4520,11 @@
       </c>
     </row>
     <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B232" t="inlineStr">
         <is>
           <t>Nuevo Urecho</t>
@@ -3448,6 +4538,11 @@
       </c>
     </row>
     <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B233" t="inlineStr">
         <is>
           <t>Ocampo</t>
@@ -3461,6 +4556,11 @@
       </c>
     </row>
     <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B234" t="inlineStr">
         <is>
           <t>Pátzcuaro</t>
@@ -3474,6 +4574,11 @@
       </c>
     </row>
     <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B235" t="inlineStr">
         <is>
           <t>Puruándiro</t>
@@ -3487,6 +4592,11 @@
       </c>
     </row>
     <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B236" t="inlineStr">
         <is>
           <t>Quiroga</t>
@@ -3500,6 +4610,11 @@
       </c>
     </row>
     <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B237" t="inlineStr">
         <is>
           <t>San Lucas</t>
@@ -3513,6 +4628,11 @@
       </c>
     </row>
     <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B238" t="inlineStr">
         <is>
           <t>Tacámbaro</t>
@@ -3526,6 +4646,11 @@
       </c>
     </row>
     <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B239" t="inlineStr">
         <is>
           <t>Tangamandapio</t>
@@ -3539,6 +4664,11 @@
       </c>
     </row>
     <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B240" t="inlineStr">
         <is>
           <t>Tarímbaro</t>
@@ -3552,6 +4682,11 @@
       </c>
     </row>
     <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B241" t="inlineStr">
         <is>
           <t>Turicato</t>
@@ -3565,6 +4700,11 @@
       </c>
     </row>
     <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B242" t="inlineStr">
         <is>
           <t>Tuxpan</t>
@@ -3578,6 +4718,11 @@
       </c>
     </row>
     <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B243" t="inlineStr">
         <is>
           <t>Uruapan</t>
@@ -3591,6 +4736,11 @@
       </c>
     </row>
     <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B244" t="inlineStr">
         <is>
           <t>Zacapu</t>
@@ -3604,6 +4754,11 @@
       </c>
     </row>
     <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B245" t="inlineStr">
         <is>
           <t>Zamora</t>
@@ -3617,6 +4772,11 @@
       </c>
     </row>
     <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B246" t="inlineStr">
         <is>
           <t>Zinapécuaro</t>
@@ -3630,6 +4790,11 @@
       </c>
     </row>
     <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B247" t="inlineStr">
         <is>
           <t>Ziracuaretiro</t>
@@ -3643,6 +4808,11 @@
       </c>
     </row>
     <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B248" t="inlineStr">
         <is>
           <t>Zitácuaro</t>
@@ -3656,6 +4826,11 @@
       </c>
     </row>
     <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B249" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3687,6 +4862,11 @@
       </c>
     </row>
     <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B251" t="inlineStr">
         <is>
           <t>Axochiapan</t>
@@ -3700,6 +4880,11 @@
       </c>
     </row>
     <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B252" t="inlineStr">
         <is>
           <t>Cuautla</t>
@@ -3713,6 +4898,11 @@
       </c>
     </row>
     <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B253" t="inlineStr">
         <is>
           <t>Cuernavaca</t>
@@ -3726,6 +4916,11 @@
       </c>
     </row>
     <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B254" t="inlineStr">
         <is>
           <t>Emiliano Zapata</t>
@@ -3739,6 +4934,11 @@
       </c>
     </row>
     <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B255" t="inlineStr">
         <is>
           <t>Huitzilac</t>
@@ -3752,6 +4952,11 @@
       </c>
     </row>
     <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B256" t="inlineStr">
         <is>
           <t>Jiutepec</t>
@@ -3765,6 +4970,11 @@
       </c>
     </row>
     <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B257" t="inlineStr">
         <is>
           <t>Jojutla</t>
@@ -3778,6 +4988,11 @@
       </c>
     </row>
     <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B258" t="inlineStr">
         <is>
           <t>Mazatepec</t>
@@ -3791,6 +5006,11 @@
       </c>
     </row>
     <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B259" t="inlineStr">
         <is>
           <t>Miacatlán</t>
@@ -3804,6 +5024,11 @@
       </c>
     </row>
     <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B260" t="inlineStr">
         <is>
           <t>Ocuituco</t>
@@ -3817,6 +5042,11 @@
       </c>
     </row>
     <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B261" t="inlineStr">
         <is>
           <t>Puente De Ixtla</t>
@@ -3830,6 +5060,11 @@
       </c>
     </row>
     <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B262" t="inlineStr">
         <is>
           <t>Temixco</t>
@@ -3843,6 +5078,11 @@
       </c>
     </row>
     <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B263" t="inlineStr">
         <is>
           <t>Tepalcingo</t>
@@ -3856,6 +5096,11 @@
       </c>
     </row>
     <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B264" t="inlineStr">
         <is>
           <t>Tetecala</t>
@@ -3869,6 +5114,11 @@
       </c>
     </row>
     <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B265" t="inlineStr">
         <is>
           <t>Tlaltizapán De Zapata</t>
@@ -3882,6 +5132,11 @@
       </c>
     </row>
     <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B266" t="inlineStr">
         <is>
           <t>Tlaquiltenango</t>
@@ -3895,6 +5150,11 @@
       </c>
     </row>
     <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B267" t="inlineStr">
         <is>
           <t>Yautepec</t>
@@ -3908,6 +5168,11 @@
       </c>
     </row>
     <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B268" t="inlineStr">
         <is>
           <t>Zacatepec</t>
@@ -3921,6 +5186,11 @@
       </c>
     </row>
     <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B269" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3952,6 +5222,11 @@
       </c>
     </row>
     <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B271" t="inlineStr">
         <is>
           <t>La Yesca</t>
@@ -3965,6 +5240,11 @@
       </c>
     </row>
     <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B272" t="inlineStr">
         <is>
           <t>Rosamorada</t>
@@ -3978,6 +5258,11 @@
       </c>
     </row>
     <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B273" t="inlineStr">
         <is>
           <t>Santa María Del Oro</t>
@@ -3991,6 +5276,11 @@
       </c>
     </row>
     <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B274" t="inlineStr">
         <is>
           <t>Tepic</t>
@@ -4004,6 +5294,11 @@
       </c>
     </row>
     <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B275" t="inlineStr">
         <is>
           <t>Total</t>
@@ -4035,6 +5330,11 @@
       </c>
     </row>
     <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B277" t="inlineStr">
         <is>
           <t>Cosolapa</t>
@@ -4048,6 +5348,11 @@
       </c>
     </row>
     <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B278" t="inlineStr">
         <is>
           <t>Fresnillo De Trujano</t>
@@ -4061,6 +5366,11 @@
       </c>
     </row>
     <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B279" t="inlineStr">
         <is>
           <t>Guevea De Humboldt</t>
@@ -4074,6 +5384,11 @@
       </c>
     </row>
     <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B280" t="inlineStr">
         <is>
           <t>Heroica Ciudad De Huajuapan De León</t>
@@ -4087,6 +5402,11 @@
       </c>
     </row>
     <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B281" t="inlineStr">
         <is>
           <t>Loma Bonita</t>
@@ -4100,6 +5420,11 @@
       </c>
     </row>
     <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B282" t="inlineStr">
         <is>
           <t>Magdalena Tequisistlán</t>
@@ -4113,6 +5438,11 @@
       </c>
     </row>
     <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B283" t="inlineStr">
         <is>
           <t>Matías Romero Avendaño</t>
@@ -4126,6 +5456,11 @@
       </c>
     </row>
     <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B284" t="inlineStr">
         <is>
           <t>Oaxaca De Juárez</t>
@@ -4139,6 +5474,11 @@
       </c>
     </row>
     <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B285" t="inlineStr">
         <is>
           <t>Putla Villa De Guerrero</t>
@@ -4152,6 +5492,11 @@
       </c>
     </row>
     <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B286" t="inlineStr">
         <is>
           <t>San Agustín Chayuco</t>
@@ -4165,6 +5510,11 @@
       </c>
     </row>
     <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B287" t="inlineStr">
         <is>
           <t>San Andrés Cabecera Nueva</t>
@@ -4178,6 +5528,11 @@
       </c>
     </row>
     <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B288" t="inlineStr">
         <is>
           <t>San Andrés Dinicuiti</t>
@@ -4191,6 +5546,11 @@
       </c>
     </row>
     <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B289" t="inlineStr">
         <is>
           <t>San Baltazar Loxicha</t>
@@ -4204,6 +5564,11 @@
       </c>
     </row>
     <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B290" t="inlineStr">
         <is>
           <t>San Juan Bautista Valle Nacional</t>
@@ -4217,6 +5582,11 @@
       </c>
     </row>
     <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B291" t="inlineStr">
         <is>
           <t>San Juan Ozolotepec</t>
@@ -4230,6 +5600,11 @@
       </c>
     </row>
     <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B292" t="inlineStr">
         <is>
           <t>San Juan Ñumí</t>
@@ -4243,6 +5618,11 @@
       </c>
     </row>
     <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B293" t="inlineStr">
         <is>
           <t>San Miguel Del Puerto</t>
@@ -4256,6 +5636,11 @@
       </c>
     </row>
     <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B294" t="inlineStr">
         <is>
           <t>Santa Cruz Papalutla</t>
@@ -4269,6 +5654,11 @@
       </c>
     </row>
     <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B295" t="inlineStr">
         <is>
           <t>Santa María Alotepec</t>
@@ -4282,6 +5672,11 @@
       </c>
     </row>
     <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B296" t="inlineStr">
         <is>
           <t>Santa María Colotepec</t>
@@ -4295,6 +5690,11 @@
       </c>
     </row>
     <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B297" t="inlineStr">
         <is>
           <t>Santiago Juxtlahuaca</t>
@@ -4308,6 +5708,11 @@
       </c>
     </row>
     <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B298" t="inlineStr">
         <is>
           <t>Santiago Texcalcingo</t>
@@ -4321,6 +5726,11 @@
       </c>
     </row>
     <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B299" t="inlineStr">
         <is>
           <t>Santo Domingo De Morelos</t>
@@ -4334,6 +5744,11 @@
       </c>
     </row>
     <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B300" t="inlineStr">
         <is>
           <t>Silacayoápam</t>
@@ -4347,6 +5762,11 @@
       </c>
     </row>
     <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B301" t="inlineStr">
         <is>
           <t>Villa Sola De Vega</t>
@@ -4360,6 +5780,11 @@
       </c>
     </row>
     <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B302" t="inlineStr">
         <is>
           <t>Total</t>
@@ -4391,6 +5816,11 @@
       </c>
     </row>
     <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B304" t="inlineStr">
         <is>
           <t>Ahuacatlán</t>
@@ -4404,6 +5834,11 @@
       </c>
     </row>
     <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B305" t="inlineStr">
         <is>
           <t>Ajalpan</t>
@@ -4417,6 +5852,11 @@
       </c>
     </row>
     <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B306" t="inlineStr">
         <is>
           <t>Atempan</t>
@@ -4430,6 +5870,11 @@
       </c>
     </row>
     <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B307" t="inlineStr">
         <is>
           <t>Atexcal</t>
@@ -4443,6 +5888,11 @@
       </c>
     </row>
     <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B308" t="inlineStr">
         <is>
           <t>Atlixco</t>
@@ -4456,6 +5906,11 @@
       </c>
     </row>
     <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B309" t="inlineStr">
         <is>
           <t>Calpan</t>
@@ -4469,6 +5924,11 @@
       </c>
     </row>
     <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B310" t="inlineStr">
         <is>
           <t>Chiautla</t>
@@ -4482,6 +5942,11 @@
       </c>
     </row>
     <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B311" t="inlineStr">
         <is>
           <t>Chichiquila</t>
@@ -4495,6 +5960,11 @@
       </c>
     </row>
     <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B312" t="inlineStr">
         <is>
           <t>Chietla</t>
@@ -4508,6 +5978,11 @@
       </c>
     </row>
     <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B313" t="inlineStr">
         <is>
           <t>Chignautla</t>
@@ -4521,6 +5996,11 @@
       </c>
     </row>
     <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B314" t="inlineStr">
         <is>
           <t>Chilchotla</t>
@@ -4534,6 +6014,11 @@
       </c>
     </row>
     <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B315" t="inlineStr">
         <is>
           <t>Cohetzala</t>
@@ -4547,6 +6032,11 @@
       </c>
     </row>
     <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B316" t="inlineStr">
         <is>
           <t>Coxcatlán</t>
@@ -4560,6 +6050,11 @@
       </c>
     </row>
     <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B317" t="inlineStr">
         <is>
           <t>Domingo Arenas</t>
@@ -4573,6 +6068,11 @@
       </c>
     </row>
     <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B318" t="inlineStr">
         <is>
           <t>Guadalupe</t>
@@ -4586,6 +6086,11 @@
       </c>
     </row>
     <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B319" t="inlineStr">
         <is>
           <t>Hermenegildo Galeana</t>
@@ -4599,6 +6104,11 @@
       </c>
     </row>
     <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B320" t="inlineStr">
         <is>
           <t>Huaquechula</t>
@@ -4612,6 +6122,11 @@
       </c>
     </row>
     <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B321" t="inlineStr">
         <is>
           <t>Huehuetla</t>
@@ -4625,6 +6140,11 @@
       </c>
     </row>
     <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B322" t="inlineStr">
         <is>
           <t>Huehuetlán El Chico</t>
@@ -4638,6 +6158,11 @@
       </c>
     </row>
     <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B323" t="inlineStr">
         <is>
           <t>Huejotzingo</t>
@@ -4651,6 +6176,11 @@
       </c>
     </row>
     <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B324" t="inlineStr">
         <is>
           <t>Ixcamilpa De Guerrero</t>
@@ -4664,6 +6194,11 @@
       </c>
     </row>
     <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B325" t="inlineStr">
         <is>
           <t>Izúcar De Matamoros</t>
@@ -4677,6 +6212,11 @@
       </c>
     </row>
     <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B326" t="inlineStr">
         <is>
           <t>Juan C. Bonilla</t>
@@ -4690,6 +6230,11 @@
       </c>
     </row>
     <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B327" t="inlineStr">
         <is>
           <t>Lafragua</t>
@@ -4703,6 +6248,11 @@
       </c>
     </row>
     <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B328" t="inlineStr">
         <is>
           <t>Libres</t>
@@ -4716,6 +6266,11 @@
       </c>
     </row>
     <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B329" t="inlineStr">
         <is>
           <t>Piaxtla</t>
@@ -4729,6 +6284,11 @@
       </c>
     </row>
     <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B330" t="inlineStr">
         <is>
           <t>Puebla</t>
@@ -4742,6 +6302,11 @@
       </c>
     </row>
     <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B331" t="inlineStr">
         <is>
           <t>San Gregorio Atzompa</t>
@@ -4755,6 +6320,11 @@
       </c>
     </row>
     <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B332" t="inlineStr">
         <is>
           <t>San Martín Texmelucan</t>
@@ -4768,6 +6338,11 @@
       </c>
     </row>
     <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B333" t="inlineStr">
         <is>
           <t>San Pedro Cholula</t>
@@ -4781,6 +6356,11 @@
       </c>
     </row>
     <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B334" t="inlineStr">
         <is>
           <t>San Salvador El Seco</t>
@@ -4794,6 +6374,11 @@
       </c>
     </row>
     <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B335" t="inlineStr">
         <is>
           <t>San Salvador El Verde</t>
@@ -4807,6 +6392,11 @@
       </c>
     </row>
     <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B336" t="inlineStr">
         <is>
           <t>Tecali De Herrera</t>
@@ -4820,6 +6410,11 @@
       </c>
     </row>
     <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B337" t="inlineStr">
         <is>
           <t>Tehuacán</t>
@@ -4833,6 +6428,11 @@
       </c>
     </row>
     <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B338" t="inlineStr">
         <is>
           <t>Tehuitzingo</t>
@@ -4846,6 +6446,11 @@
       </c>
     </row>
     <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B339" t="inlineStr">
         <is>
           <t>Teziutlán</t>
@@ -4859,6 +6464,11 @@
       </c>
     </row>
     <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B340" t="inlineStr">
         <is>
           <t>Tlacotepec De Benito Juárez</t>
@@ -4872,6 +6482,11 @@
       </c>
     </row>
     <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B341" t="inlineStr">
         <is>
           <t>Tlahuapan</t>
@@ -4885,6 +6500,11 @@
       </c>
     </row>
     <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B342" t="inlineStr">
         <is>
           <t>Tlatlauquitepec</t>
@@ -4898,6 +6518,11 @@
       </c>
     </row>
     <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B343" t="inlineStr">
         <is>
           <t>Tlaxco</t>
@@ -4911,6 +6536,11 @@
       </c>
     </row>
     <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B344" t="inlineStr">
         <is>
           <t>Vicente Guerrero</t>
@@ -4924,6 +6554,11 @@
       </c>
     </row>
     <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B345" t="inlineStr">
         <is>
           <t>Xicotlán</t>
@@ -4937,6 +6572,11 @@
       </c>
     </row>
     <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B346" t="inlineStr">
         <is>
           <t>Yehualtepec</t>
@@ -4950,6 +6590,11 @@
       </c>
     </row>
     <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B347" t="inlineStr">
         <is>
           <t>Zacapoaxtla</t>
@@ -4963,6 +6608,11 @@
       </c>
     </row>
     <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B348" t="inlineStr">
         <is>
           <t>Zautla</t>
@@ -4976,6 +6626,11 @@
       </c>
     </row>
     <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B349" t="inlineStr">
         <is>
           <t>Total</t>
@@ -5007,6 +6662,11 @@
       </c>
     </row>
     <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B351" t="inlineStr">
         <is>
           <t>Colón</t>
@@ -5020,6 +6680,11 @@
       </c>
     </row>
     <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B352" t="inlineStr">
         <is>
           <t>Jalpan De Serra</t>
@@ -5033,6 +6698,11 @@
       </c>
     </row>
     <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B353" t="inlineStr">
         <is>
           <t>Pinal De Amoles</t>
@@ -5046,6 +6716,11 @@
       </c>
     </row>
     <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B354" t="inlineStr">
         <is>
           <t>Querétaro</t>
@@ -5059,6 +6734,11 @@
       </c>
     </row>
     <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B355" t="inlineStr">
         <is>
           <t>Total</t>
@@ -5090,6 +6770,11 @@
       </c>
     </row>
     <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>Quintana Roo</t>
+        </is>
+      </c>
       <c r="B357" t="inlineStr">
         <is>
           <t>Total</t>
@@ -5121,6 +6806,11 @@
       </c>
     </row>
     <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B359" t="inlineStr">
         <is>
           <t>Axtla De Terrazas</t>
@@ -5134,6 +6824,11 @@
       </c>
     </row>
     <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B360" t="inlineStr">
         <is>
           <t>Cárdenas</t>
@@ -5147,6 +6842,11 @@
       </c>
     </row>
     <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B361" t="inlineStr">
         <is>
           <t>Ciudad Del Maíz</t>
@@ -5160,6 +6860,11 @@
       </c>
     </row>
     <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B362" t="inlineStr">
         <is>
           <t>Ciudad Valles</t>
@@ -5173,6 +6878,11 @@
       </c>
     </row>
     <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B363" t="inlineStr">
         <is>
           <t>Lagunillas</t>
@@ -5186,6 +6896,11 @@
       </c>
     </row>
     <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B364" t="inlineStr">
         <is>
           <t>Matehuala</t>
@@ -5199,6 +6914,11 @@
       </c>
     </row>
     <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B365" t="inlineStr">
         <is>
           <t>Moctezuma</t>
@@ -5212,6 +6932,11 @@
       </c>
     </row>
     <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B366" t="inlineStr">
         <is>
           <t>Rioverde</t>
@@ -5225,6 +6950,11 @@
       </c>
     </row>
     <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B367" t="inlineStr">
         <is>
           <t>Salinas</t>
@@ -5238,6 +6968,11 @@
       </c>
     </row>
     <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B368" t="inlineStr">
         <is>
           <t>San Luis Potosí</t>
@@ -5251,6 +6986,11 @@
       </c>
     </row>
     <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B369" t="inlineStr">
         <is>
           <t>Tamasopo</t>
@@ -5264,6 +7004,11 @@
       </c>
     </row>
     <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B370" t="inlineStr">
         <is>
           <t>Tamazunchale</t>
@@ -5277,6 +7022,11 @@
       </c>
     </row>
     <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B371" t="inlineStr">
         <is>
           <t>Villa De Reyes</t>
@@ -5290,6 +7040,11 @@
       </c>
     </row>
     <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B372" t="inlineStr">
         <is>
           <t>Total</t>
@@ -5321,6 +7076,11 @@
       </c>
     </row>
     <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B374" t="inlineStr">
         <is>
           <t>Sinaloa</t>
@@ -5334,6 +7094,11 @@
       </c>
     </row>
     <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B375" t="inlineStr">
         <is>
           <t>Total</t>
@@ -5365,6 +7130,11 @@
       </c>
     </row>
     <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B377" t="inlineStr">
         <is>
           <t>Cunduacán</t>
@@ -5378,6 +7148,11 @@
       </c>
     </row>
     <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B378" t="inlineStr">
         <is>
           <t>Huimanguillo</t>
@@ -5391,6 +7166,11 @@
       </c>
     </row>
     <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B379" t="inlineStr">
         <is>
           <t>Macuspana</t>
@@ -5404,6 +7184,11 @@
       </c>
     </row>
     <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B380" t="inlineStr">
         <is>
           <t>Total</t>
@@ -5435,6 +7220,11 @@
       </c>
     </row>
     <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B382" t="inlineStr">
         <is>
           <t>Ciudad Madero</t>
@@ -5448,6 +7238,11 @@
       </c>
     </row>
     <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B383" t="inlineStr">
         <is>
           <t>Jaumave</t>
@@ -5461,6 +7256,11 @@
       </c>
     </row>
     <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B384" t="inlineStr">
         <is>
           <t>Matamoros</t>
@@ -5474,6 +7274,11 @@
       </c>
     </row>
     <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B385" t="inlineStr">
         <is>
           <t>Río Bravo</t>
@@ -5487,6 +7292,11 @@
       </c>
     </row>
     <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B386" t="inlineStr">
         <is>
           <t>Tampico</t>
@@ -5500,6 +7310,11 @@
       </c>
     </row>
     <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B387" t="inlineStr">
         <is>
           <t>Tula</t>
@@ -5513,6 +7328,11 @@
       </c>
     </row>
     <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B388" t="inlineStr">
         <is>
           <t>Victoria</t>
@@ -5526,6 +7346,11 @@
       </c>
     </row>
     <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B389" t="inlineStr">
         <is>
           <t>Total</t>
@@ -5557,6 +7382,11 @@
       </c>
     </row>
     <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B391" t="inlineStr">
         <is>
           <t>Atlangatepec</t>
@@ -5570,6 +7400,11 @@
       </c>
     </row>
     <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B392" t="inlineStr">
         <is>
           <t>Calpulalpan</t>
@@ -5583,6 +7418,11 @@
       </c>
     </row>
     <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B393" t="inlineStr">
         <is>
           <t>Hueyotlipan</t>
@@ -5596,6 +7436,11 @@
       </c>
     </row>
     <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B394" t="inlineStr">
         <is>
           <t>Tetlatlahuca</t>
@@ -5609,6 +7454,11 @@
       </c>
     </row>
     <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B395" t="inlineStr">
         <is>
           <t>Tlaxcala</t>
@@ -5622,6 +7472,11 @@
       </c>
     </row>
     <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B396" t="inlineStr">
         <is>
           <t>Yauhquemehcan</t>
@@ -5635,6 +7490,11 @@
       </c>
     </row>
     <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B397" t="inlineStr">
         <is>
           <t>Total</t>
@@ -5666,6 +7526,11 @@
       </c>
     </row>
     <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B399" t="inlineStr">
         <is>
           <t>Alto Lucero De Gutiérrez Barrios</t>
@@ -5679,6 +7544,11 @@
       </c>
     </row>
     <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B400" t="inlineStr">
         <is>
           <t>Alvarado</t>
@@ -5692,6 +7562,11 @@
       </c>
     </row>
     <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B401" t="inlineStr">
         <is>
           <t>Atoyac</t>
@@ -5705,6 +7580,11 @@
       </c>
     </row>
     <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B402" t="inlineStr">
         <is>
           <t>Coatepec</t>
@@ -5718,6 +7598,11 @@
       </c>
     </row>
     <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B403" t="inlineStr">
         <is>
           <t>Coatzacoalcos</t>
@@ -5731,6 +7616,11 @@
       </c>
     </row>
     <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B404" t="inlineStr">
         <is>
           <t>Córdoba</t>
@@ -5744,6 +7634,11 @@
       </c>
     </row>
     <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B405" t="inlineStr">
         <is>
           <t>Cosamaloapan De Carpio</t>
@@ -5757,6 +7652,11 @@
       </c>
     </row>
     <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B406" t="inlineStr">
         <is>
           <t>Coyutla</t>
@@ -5770,6 +7670,11 @@
       </c>
     </row>
     <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B407" t="inlineStr">
         <is>
           <t>Cuitláhuac</t>
@@ -5783,6 +7688,11 @@
       </c>
     </row>
     <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B408" t="inlineStr">
         <is>
           <t>Huatusco</t>
@@ -5796,6 +7706,11 @@
       </c>
     </row>
     <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B409" t="inlineStr">
         <is>
           <t>Ignacio De La Llave</t>
@@ -5809,6 +7724,11 @@
       </c>
     </row>
     <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B410" t="inlineStr">
         <is>
           <t>Ixhuatlán De Madero</t>
@@ -5822,6 +7742,11 @@
       </c>
     </row>
     <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B411" t="inlineStr">
         <is>
           <t>Ixmatlahuacan</t>
@@ -5835,6 +7760,11 @@
       </c>
     </row>
     <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B412" t="inlineStr">
         <is>
           <t>Jalcomulco</t>
@@ -5848,6 +7778,11 @@
       </c>
     </row>
     <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B413" t="inlineStr">
         <is>
           <t>Jamapa</t>
@@ -5861,6 +7796,11 @@
       </c>
     </row>
     <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B414" t="inlineStr">
         <is>
           <t>Juchique De Ferrer</t>
@@ -5874,6 +7814,11 @@
       </c>
     </row>
     <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B415" t="inlineStr">
         <is>
           <t>La Antigua</t>
@@ -5887,6 +7832,11 @@
       </c>
     </row>
     <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B416" t="inlineStr">
         <is>
           <t>Las Choapas</t>
@@ -5900,6 +7850,11 @@
       </c>
     </row>
     <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B417" t="inlineStr">
         <is>
           <t>Manlio Fabio Altamirano</t>
@@ -5913,6 +7868,11 @@
       </c>
     </row>
     <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B418" t="inlineStr">
         <is>
           <t>Martínez De La Torre</t>
@@ -5926,6 +7886,11 @@
       </c>
     </row>
     <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B419" t="inlineStr">
         <is>
           <t>Mecayapan</t>
@@ -5939,6 +7904,11 @@
       </c>
     </row>
     <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B420" t="inlineStr">
         <is>
           <t>Medellín De Bravo</t>
@@ -5952,6 +7922,11 @@
       </c>
     </row>
     <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B421" t="inlineStr">
         <is>
           <t>Misantla</t>
@@ -5965,6 +7940,11 @@
       </c>
     </row>
     <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B422" t="inlineStr">
         <is>
           <t>Moloacán</t>
@@ -5978,6 +7958,11 @@
       </c>
     </row>
     <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B423" t="inlineStr">
         <is>
           <t>Omealca</t>
@@ -5991,6 +7976,11 @@
       </c>
     </row>
     <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B424" t="inlineStr">
         <is>
           <t>Orizaba</t>
@@ -6004,6 +7994,11 @@
       </c>
     </row>
     <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B425" t="inlineStr">
         <is>
           <t>Pánuco</t>
@@ -6017,6 +8012,11 @@
       </c>
     </row>
     <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B426" t="inlineStr">
         <is>
           <t>Papantla</t>
@@ -6030,6 +8030,11 @@
       </c>
     </row>
     <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B427" t="inlineStr">
         <is>
           <t>San Andrés Tuxtla</t>
@@ -6043,6 +8048,11 @@
       </c>
     </row>
     <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B428" t="inlineStr">
         <is>
           <t>Santiago Tuxtla</t>
@@ -6056,6 +8066,11 @@
       </c>
     </row>
     <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B429" t="inlineStr">
         <is>
           <t>Soledad De Doblado</t>
@@ -6069,6 +8084,11 @@
       </c>
     </row>
     <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B430" t="inlineStr">
         <is>
           <t>Álamo Temapache</t>
@@ -6082,6 +8102,11 @@
       </c>
     </row>
     <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B431" t="inlineStr">
         <is>
           <t>Tenampa</t>
@@ -6095,6 +8120,11 @@
       </c>
     </row>
     <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B432" t="inlineStr">
         <is>
           <t>Tezonapa</t>
@@ -6108,6 +8138,11 @@
       </c>
     </row>
     <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B433" t="inlineStr">
         <is>
           <t>Tierra Blanca</t>
@@ -6121,6 +8156,11 @@
       </c>
     </row>
     <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B434" t="inlineStr">
         <is>
           <t>Tlalixcoyan</t>
@@ -6134,6 +8174,11 @@
       </c>
     </row>
     <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B435" t="inlineStr">
         <is>
           <t>Veracruz</t>
@@ -6147,6 +8192,11 @@
       </c>
     </row>
     <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B436" t="inlineStr">
         <is>
           <t>Xalapa</t>
@@ -6160,6 +8210,11 @@
       </c>
     </row>
     <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B437" t="inlineStr">
         <is>
           <t>Total</t>
@@ -6191,6 +8246,11 @@
       </c>
     </row>
     <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B439" t="inlineStr">
         <is>
           <t>Huanusco</t>
@@ -6204,6 +8264,11 @@
       </c>
     </row>
     <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B440" t="inlineStr">
         <is>
           <t>Río Grande</t>
@@ -6217,6 +8282,11 @@
       </c>
     </row>
     <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B441" t="inlineStr">
         <is>
           <t>Total</t>
